--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\GitHub\bot_py_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8639A53-8A75-432E-B533-3DB8E5C5E559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C39A53-5A66-4542-8506-BA22360DEA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AADB99E0-A5EC-480A-863C-ADD0AADF1709}"/>
   </bookViews>
@@ -98,12 +98,6 @@
     <t>(15)97781-8822</t>
   </si>
   <si>
-    <t>fem</t>
-  </si>
-  <si>
-    <t>masc</t>
-  </si>
-  <si>
     <t>RPA dev</t>
   </si>
   <si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>Engenheira civil</t>
+  </si>
+  <si>
+    <t>Fem</t>
+  </si>
+  <si>
+    <t>Masc</t>
   </si>
 </sst>
 </file>
@@ -175,12 +175,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -521,7 +520,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,89 +552,89 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" t="s">
         <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
